--- a/tablas/personal por regimen laboral.xlsx
+++ b/tablas/personal por regimen laboral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>D.L. 1153</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>LEY 30493</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>descargo</t>
@@ -449,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,10 +480,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -500,10 +506,13 @@
       <c r="G2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -523,10 +532,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -546,10 +558,13 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -569,10 +584,13 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -592,10 +610,13 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -615,10 +636,13 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -638,10 +662,13 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -661,10 +688,13 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -684,10 +714,13 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -707,10 +740,13 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -730,10 +766,13 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -753,10 +792,13 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -776,10 +818,13 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -799,10 +844,13 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -822,10 +870,13 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -845,10 +896,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -868,10 +922,13 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -891,10 +948,13 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -913,6 +973,35 @@
       </c>
       <c r="G20">
         <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>123</v>
+      </c>
+      <c r="E21">
+        <v>185</v>
+      </c>
+      <c r="F21">
+        <v>157</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
